--- a/role_permission_files/mockup_room_configuration_v0.4.xlsx
+++ b/role_permission_files/mockup_room_configuration_v0.4.xlsx
@@ -15,7 +15,7 @@
     <sheet name="version" sheetId="2" r:id="rId1"/>
     <sheet name="AP" sheetId="3" r:id="rId2"/>
     <sheet name="SSO" sheetId="5" r:id="rId3"/>
-    <sheet name="Cage" sheetId="6" r:id="rId4"/>
+    <sheet name="CAGE" sheetId="6" r:id="rId4"/>
     <sheet name="GRMS" sheetId="7" r:id="rId5"/>
     <sheet name="SignatureVerifier" sheetId="8" r:id="rId6"/>
     <sheet name="StationManagement" sheetId="10" r:id="rId7"/>
